--- a/Резюме/Тестовая база.xlsx
+++ b/Резюме/Тестовая база.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="540" windowWidth="21756" windowHeight="8676"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -79,24 +82,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -105,48 +113,331 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.57"/>
-    <col customWidth="1" min="2" max="2" width="27.43"/>
-    <col customWidth="1" min="3" max="3" width="17.14"/>
-    <col customWidth="1" min="4" max="4" width="36.57"/>
-    <col customWidth="1" min="5" max="5" width="19.57"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -163,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -180,7 +471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -197,7 +488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -205,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>80000.0</v>
+        <v>80000</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -214,7 +505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -222,7 +513,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>200000.0</v>
+        <v>200000</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -232,6 +523,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Резюме/Тестовая база.xlsx
+++ b/Резюме/Тестовая база.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +453,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -470,8 +471,9 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -487,8 +489,9 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -504,8 +507,9 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -521,8 +525,10 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Резюме/Тестовая база.xlsx
+++ b/Резюме/Тестовая база.xlsx
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -437,7 +437,7 @@
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,9 +453,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -471,9 +470,8 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -489,9 +487,8 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -507,9 +504,8 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -525,7 +521,6 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Резюме/Тестовая база.xlsx
+++ b/Резюме/Тестовая база.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Резюме/Тестовая база.xlsx
+++ b/Резюме/Тестовая база.xlsx
@@ -1,107 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="540" windowWidth="21756" windowHeight="8676"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="516" yWindow="540" windowWidth="21756" windowHeight="8676" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>Должность</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Ожидания по ЗП</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Frontend-разработчик</t>
-  </si>
-  <si>
-    <t>Глибин Виталий Николаевич</t>
-  </si>
-  <si>
-    <t>150000 рублей</t>
-  </si>
-  <si>
-    <t>Нужно звать на собеседование</t>
-  </si>
-  <si>
-    <t>Отправлено письмо</t>
-  </si>
-  <si>
-    <t>Танский Михаил</t>
-  </si>
-  <si>
-    <t>120 000</t>
-  </si>
-  <si>
-    <t>Какой-то странный, но нужно поговорить</t>
-  </si>
-  <si>
-    <t>Интервью с HR</t>
-  </si>
-  <si>
-    <t>Менеджер по продажам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корниенко Максим   </t>
-  </si>
-  <si>
-    <t>Классный</t>
-  </si>
-  <si>
-    <t>Выставлен оффер</t>
-  </si>
-  <si>
-    <t>Шорин Андрей</t>
-  </si>
-  <si>
-    <t>Очень дорогой</t>
-  </si>
-  <si>
-    <t>Отказ</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,20 +53,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,109 +416,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col width="23.5546875" customWidth="1" min="1" max="1"/>
+    <col width="27.44140625" customWidth="1" min="2" max="2"/>
+    <col width="17.109375" customWidth="1" min="3" max="3"/>
+    <col width="36.5546875" customWidth="1" min="4" max="4"/>
+    <col width="19.5546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ожидания по ЗП</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Статус выполнения</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Frontend-разработчик</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Глибин Виталий Николаевич</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>150000 рублей</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Нужно звать на собеседование</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Отправлено письмо</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Загружено в Хантфлоу</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Frontend-разработчик</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Танский Михаил</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>120 000</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Какой-то странный, но нужно поговорить</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Интервью с HR</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Загружено в Хантфлоу</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Менеджер по продажам</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Корниенко Максим   </t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>80000</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Классный</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Выставлен оффер</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Загружено в Хантфлоу</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Менеджер по продажам</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Шорин Андрей</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>200000</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Очень дорогой</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Отказ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Загружено в Хантфлоу</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>